--- a/Tester/TC04_testdb.xlsx
+++ b/Tester/TC04_testdb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Module Code(Mã Module)</t>
   </si>
@@ -359,6 +359,48 @@
   <si>
     <t xml:space="preserve">Bước 1: Bật app lên
 Bươc 2: Click vào thư mục Database =&gt; CreateDatabase </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tạo thành công database </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">KhoanThu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">gồm các trường : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID(int) ,Ngay(String),TaiKhoan(String),SoTien(String),MoTa(String),LoaiThu(String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,9 +1688,13 @@
       <c r="F10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="57" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" s="55"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="J10" s="58"/>
       <c r="K10" s="75"/>
     </row>
@@ -1667,9 +1713,13 @@
       <c r="F11" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="60" t="s">
+        <v>44</v>
+      </c>
       <c r="H11" s="55"/>
-      <c r="I11" s="58"/>
+      <c r="I11" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="J11" s="58"/>
       <c r="K11" s="75"/>
     </row>
@@ -1688,9 +1738,13 @@
       <c r="F12" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="62"/>
+      <c r="G12" s="68" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="55"/>
-      <c r="I12" s="58"/>
+      <c r="I12" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="J12" s="58"/>
       <c r="K12" s="1"/>
     </row>
@@ -1709,9 +1763,13 @@
       <c r="F13" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="68" t="s">
+        <v>40</v>
+      </c>
       <c r="H13" s="55"/>
-      <c r="I13" s="58"/>
+      <c r="I13" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="J13" s="58"/>
       <c r="K13" s="1"/>
     </row>
@@ -1730,9 +1788,13 @@
       <c r="F14" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="62"/>
+      <c r="G14" s="69" t="s">
+        <v>42</v>
+      </c>
       <c r="H14" s="62"/>
-      <c r="I14" s="64"/>
+      <c r="I14" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="64"/>
       <c r="K14" s="1"/>
     </row>
@@ -1751,9 +1813,13 @@
       <c r="F15" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="68" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="62"/>
-      <c r="I15" s="64"/>
+      <c r="I15" s="58" t="s">
+        <v>45</v>
+      </c>
       <c r="J15" s="58"/>
       <c r="K15" s="1"/>
     </row>
